--- a/data/stat probs/chuma okeke stat probs - condition.xlsx
+++ b/data/stat probs/chuma okeke stat probs - condition.xlsx
@@ -19,36 +19,36 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 full" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 after 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 after 2023 full" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 before 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 before 2023 full" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15 after 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15 after 2023 full" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15 before 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15 before 2023 full" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 regular" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 full" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 after 2023 regular" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 after 2023 full" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cle 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 full" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 after 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 after 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 before 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 before 2023 full" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15 after 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15 after 2023 full" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15 before 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15 before 2023 full" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 full" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 after 2023 regular" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 after 2023 full" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="42" state="visible" r:id="rId42"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 before 2023 regular" sheetId="43" state="visible" r:id="rId43"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 before 2023 full" sheetId="44" state="visible" r:id="rId44"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tor 2023 regular" sheetId="45" state="visible" r:id="rId45"/>
@@ -569,28 +569,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -1179,28 +1179,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1725,28 +1725,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -2335,28 +2335,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -2877,1098 +2877,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>50</v>
-      </c>
-      <c r="H5" t="n">
-        <v>50</v>
-      </c>
-      <c r="I5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" t="n">
-        <v>50</v>
-      </c>
-      <c r="G6" t="n">
-        <v>25</v>
-      </c>
-      <c r="H6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>75</v>
-      </c>
-      <c r="G7" t="n">
-        <v>25</v>
-      </c>
-      <c r="H7" t="n">
-        <v>75</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" t="n">
-        <v>25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>75</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>75</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25</v>
-      </c>
-      <c r="F9" t="n">
-        <v>75</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>25</v>
-      </c>
-      <c r="F10" t="n">
-        <v>75</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" t="n">
-        <v>75</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>75</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>75</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" t="n">
-        <v>75</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" t="n">
-        <v>75</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>50</v>
-      </c>
-      <c r="H5" t="n">
-        <v>50</v>
-      </c>
-      <c r="I5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" t="n">
-        <v>50</v>
-      </c>
-      <c r="G6" t="n">
-        <v>25</v>
-      </c>
-      <c r="H6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>75</v>
-      </c>
-      <c r="G7" t="n">
-        <v>25</v>
-      </c>
-      <c r="H7" t="n">
-        <v>75</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" t="n">
-        <v>25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>75</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>75</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25</v>
-      </c>
-      <c r="F9" t="n">
-        <v>75</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>25</v>
-      </c>
-      <c r="F10" t="n">
-        <v>75</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" t="n">
-        <v>75</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>75</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>75</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" t="n">
-        <v>75</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" t="n">
-        <v>75</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4037,28 +2945,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -4258,7 +3166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4327,28 +3235,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -4548,7 +3456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4617,28 +3525,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -5158,7 +4066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5227,28 +4135,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -5768,7 +4676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5837,28 +4745,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6114,6 +5022,618 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>67</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33</v>
+      </c>
+      <c r="H5" t="n">
+        <v>67</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>67</v>
+      </c>
+      <c r="D7" t="n">
+        <v>33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>67</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>67</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6191,28 +5711,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -6733,360 +6253,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>67</v>
-      </c>
-      <c r="H4" t="n">
-        <v>33</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33</v>
-      </c>
-      <c r="J4" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33</v>
-      </c>
-      <c r="H5" t="n">
-        <v>67</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>67</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>67</v>
-      </c>
-      <c r="D7" t="n">
-        <v>33</v>
-      </c>
-      <c r="E7" t="n">
-        <v>33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>67</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="n">
-        <v>67</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>67</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="n">
-        <v>67</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="n">
-        <v>67</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7155,22 +6321,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7336,6 +6502,328 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>67</v>
+      </c>
+      <c r="J2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>67</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="n">
+        <v>67</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33</v>
+      </c>
+      <c r="H5" t="n">
+        <v>67</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>67</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>67</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>67</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7345,6 +6833,328 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>67</v>
+      </c>
+      <c r="J2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>67</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="n">
+        <v>67</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33</v>
+      </c>
+      <c r="H5" t="n">
+        <v>67</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>67</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>67</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>67</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7413,22 +7223,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7457,10 +7267,10 @@
         <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -7594,328 +7404,6 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>67</v>
-      </c>
-      <c r="H3" t="n">
-        <v>33</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>67</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="n">
-        <v>67</v>
-      </c>
-      <c r="H4" t="n">
-        <v>33</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33</v>
-      </c>
-      <c r="E5" t="n">
-        <v>67</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33</v>
-      </c>
-      <c r="H5" t="n">
-        <v>67</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67</v>
-      </c>
-      <c r="E6" t="n">
-        <v>67</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>67</v>
-      </c>
-      <c r="F7" t="n">
-        <v>33</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>67</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" t="n">
-        <v>33</v>
-      </c>
-      <c r="F9" t="n">
-        <v>67</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7925,328 +7413,6 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>67</v>
-      </c>
-      <c r="H3" t="n">
-        <v>33</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>67</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="n">
-        <v>67</v>
-      </c>
-      <c r="H4" t="n">
-        <v>33</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33</v>
-      </c>
-      <c r="E5" t="n">
-        <v>67</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33</v>
-      </c>
-      <c r="H5" t="n">
-        <v>67</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67</v>
-      </c>
-      <c r="E6" t="n">
-        <v>67</v>
-      </c>
-      <c r="F6" t="n">
-        <v>33</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>67</v>
-      </c>
-      <c r="F7" t="n">
-        <v>33</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>67</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" t="n">
-        <v>33</v>
-      </c>
-      <c r="F9" t="n">
-        <v>67</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8315,22 +7481,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8504,265 +7670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>50</v>
-      </c>
-      <c r="H5" t="n">
-        <v>50</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" t="n">
-        <v>50</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" t="n">
-        <v>50</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8831,28 +7739,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -8988,7 +7896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9057,28 +7965,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -9206,6 +8114,394 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9283,16 +8579,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9301,10 +8597,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -9321,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -9477,28 +8773,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -10087,16 +9383,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10105,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10125,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -10213,6 +9509,330 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10281,16 +9901,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10299,10 +9919,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -10313,16 +9933,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -10331,10 +9951,10 @@
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -10345,16 +9965,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -10377,10 +9997,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -10406,7 +10026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10475,16 +10095,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10493,10 +10113,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -10507,16 +10127,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -10525,10 +10145,10 @@
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -10539,16 +10159,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -10571,10 +10191,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -10600,7 +10220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10675,10 +10295,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10707,10 +10327,10 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -10739,10 +10359,10 @@
         <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -10762,7 +10382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10837,10 +10457,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10869,10 +10489,10 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -10901,10 +10521,10 @@
         <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -10924,7 +10544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10993,10 +10613,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -11011,10 +10631,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -11025,16 +10645,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -11043,10 +10663,10 @@
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -11057,16 +10677,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -11089,10 +10709,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -11118,7 +10738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11187,10 +10807,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -11205,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -11219,16 +10839,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -11237,10 +10857,10 @@
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -11251,16 +10871,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -11283,10 +10903,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -11304,330 +10924,6 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11705,10 +11001,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -11723,10 +11019,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -11899,28 +11195,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -12509,10 +11805,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -12527,10 +11823,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12640,7 +11936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12703,28 +11999,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -12735,28 +12031,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -12767,16 +12063,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -12785,10 +12081,10 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -12799,16 +12095,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -12820,6 +12116,102 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>67</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>67</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -12834,7 +12226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12897,28 +12289,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -12929,28 +12321,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -12961,16 +12353,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -12979,10 +12371,10 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -12993,16 +12385,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -13014,6 +12406,102 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>67</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>67</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13091,10 +12579,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -13109,10 +12597,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -13285,10 +12773,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -13303,10 +12791,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -13485,10 +12973,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13647,10 +13135,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13809,10 +13297,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13971,10 +13459,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14127,28 +13615,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -14353,28 +13841,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -14899,28 +14387,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -15321,22 +14809,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15643,22 +15131,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15965,28 +15453,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -16223,28 +15711,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -16481,28 +15969,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -16899,28 +16387,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -17317,16 +16805,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17335,10 +16823,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -17735,28 +17223,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -18281,16 +17769,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -18299,10 +17787,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18699,28 +18187,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19149,28 +18637,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19599,28 +19087,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20049,28 +19537,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20499,28 +19987,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20853,28 +20341,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21207,22 +20695,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21369,22 +20857,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21531,16 +21019,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21821,28 +21309,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -22367,16 +21855,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22657,28 +22145,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23267,28 +22755,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23877,28 +23365,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24167,28 +23655,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24463,16 +23951,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24625,16 +24113,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24781,28 +24269,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -25135,28 +24623,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -25489,16 +24977,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25507,10 +24995,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -25683,28 +25171,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -26229,16 +25717,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26247,10 +25735,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -26423,22 +25911,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26649,22 +26137,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26875,28 +26363,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
